--- a/data/trans_dic/IMC_inf_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_R2-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,14 +724,14 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>36,51%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,73; 54,39</t>
+          <t>41,24; 60,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 43,92</t>
+          <t>36,19; 56,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,28; 53,41</t>
+          <t>41,83; 64,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,73; 41,11</t>
+          <t>25,02; 50,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,41; 38,73</t>
+          <t>23,03; 39,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,16; 46,16</t>
+          <t>33,66; 54,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,25; 61,37</t>
+          <t>46,64; 70,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 45,87</t>
+          <t>23,96; 53,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,86; 43,62</t>
+          <t>33,52; 46,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,99; 42,48</t>
+          <t>38,48; 53,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,6; 54,67</t>
+          <t>46,75; 63,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 39,86</t>
+          <t>27,36; 46,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>36,49%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,77; 48,97</t>
+          <t>44,18; 52,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,36; 45,56</t>
+          <t>47,6; 56,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 43,72</t>
+          <t>39,52; 47,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,84; 42,5</t>
+          <t>37,56; 47,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,45; 37,66</t>
+          <t>31,42; 39,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,89; 41,5</t>
+          <t>38,46; 47,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,55; 34,75</t>
+          <t>30,34; 38,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,79; 30,97</t>
+          <t>25,84; 34,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,48; 42,72</t>
+          <t>39,45; 45,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,16; 42,35</t>
+          <t>44,19; 50,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,24; 38,01</t>
+          <t>36,27; 42,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,87; 36,18</t>
+          <t>33,34; 39,78</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 35,44</t>
+          <t>26,89; 40,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,71; 48,58</t>
+          <t>42,1; 57,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 42,28</t>
+          <t>37,15; 50,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 32,65</t>
+          <t>24,32; 37,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,64</t>
+          <t>29,77; 43,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 41,41</t>
+          <t>32,96; 47,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 32,59</t>
+          <t>22,93; 35,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 26,27</t>
+          <t>17,83; 29,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,19; 36,7</t>
+          <t>30,18; 39,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,38; 43,26</t>
+          <t>39,57; 50,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 36,32</t>
+          <t>31,75; 41,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 27,95</t>
+          <t>23,15; 32,16</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,98; 44,8</t>
+          <t>42,42; 48,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,39; 44,21</t>
+          <t>47,01; 53,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,37; 42,4</t>
+          <t>41,43; 48,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,53; 38,6</t>
+          <t>35,48; 42,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,57; 36,5</t>
+          <t>32,22; 38,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,74; 39,81</t>
+          <t>38,92; 45,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,95; 34,63</t>
+          <t>31,59; 38,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,32</t>
+          <t>25,79; 32,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,13</t>
+          <t>38,14; 42,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,08; 41,26</t>
+          <t>43,91; 48,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,48; 37,82</t>
+          <t>37,39; 42,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,33</t>
+          <t>31,78; 37,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_inf_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>36,24%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,65; 39,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>34,43; 54,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,21; 68,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,86; 55,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,72; 59,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,21; 56,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,54; 63,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>24,08; 47,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,34; 46,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>38,83; 52,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,17; 63,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>26,79; 46,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48,33%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>35,92%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>31,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>44,36%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>58,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>37,18%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>39,84%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>45,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>55,16%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>36,51%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,24; 60,01</t>
+          <t>31,81; 40,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,19; 56,76</t>
+          <t>38,1; 46,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,83; 64,27</t>
+          <t>30,27; 38,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 50,63</t>
+          <t>22,58; 32,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 39,18</t>
+          <t>44,44; 52,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,66; 54,63</t>
+          <t>47,05; 55,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,64; 70,29</t>
+          <t>39,25; 47,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,96; 53,27</t>
+          <t>37,12; 47,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,52; 46,66</t>
+          <t>39,62; 45,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,48; 53,32</t>
+          <t>44,36; 50,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,75; 63,56</t>
+          <t>36,35; 42,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,36; 46,1</t>
+          <t>31,68; 39,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,18; 52,04</t>
+          <t>30,08; 42,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,6; 56,08</t>
+          <t>31,52; 47,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,52; 47,93</t>
+          <t>22,39; 35,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,56; 47,27</t>
+          <t>17,5; 30,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,42; 39,53</t>
+          <t>27,49; 40,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,46; 47,61</t>
+          <t>42,33; 56,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,34; 38,46</t>
+          <t>36,89; 51,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 34,28</t>
+          <t>25,1; 38,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 45,18</t>
+          <t>30,29; 39,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,19; 50,42</t>
+          <t>39,47; 49,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,27; 42,08</t>
+          <t>31,56; 41,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,34; 39,78</t>
+          <t>22,71; 32,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>33,92%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,89; 40,69</t>
+          <t>32,29; 38,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,1; 57,17</t>
+          <t>38,97; 45,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,15; 50,77</t>
+          <t>31,75; 38,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 37,95</t>
+          <t>23,34; 31,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,77; 43,46</t>
+          <t>42,26; 48,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,96; 47,51</t>
+          <t>47,22; 54,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 35,79</t>
+          <t>41,18; 48,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 29,51</t>
+          <t>34,86; 42,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,18; 39,63</t>
+          <t>38,08; 42,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,57; 50,23</t>
+          <t>44,31; 49,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 41,42</t>
+          <t>37,54; 42,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 32,16</t>
+          <t>30,7; 36,74</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>45,42%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>50,48%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>44,73%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>39,3%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>42,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>28,96%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>40,45%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>46,43%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>39,97%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>34,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>42,42; 48,64</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>47,01; 53,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>41,43; 48,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>35,48; 42,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>32,22; 38,63</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>38,92; 45,65</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>31,59; 38,16</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>25,79; 32,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>38,14; 42,74</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>43,91; 48,76</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>37,39; 42,21</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>31,78; 37,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
